--- a/Code/Results/Cases/Case_1_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8761994449604629</v>
+        <v>0.6134656713070115</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07547828343102481</v>
+        <v>0.02758097233170531</v>
       </c>
       <c r="E2">
-        <v>0.1142247660909241</v>
+        <v>0.2853314639433258</v>
       </c>
       <c r="F2">
-        <v>0.3262868084491402</v>
+        <v>0.5018710737478926</v>
       </c>
       <c r="G2">
-        <v>0.2214114500079774</v>
+        <v>0.3440372786528201</v>
       </c>
       <c r="H2">
-        <v>0.2099252089338535</v>
+        <v>0.5167936572188339</v>
       </c>
       <c r="I2">
-        <v>0.3389191990507872</v>
+        <v>0.8603903481251596</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.527084099912571</v>
+        <v>0.5121234939768442</v>
       </c>
       <c r="L2">
-        <v>0.3188648124755105</v>
+        <v>0.1516564328683074</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8585527280730076</v>
+        <v>1.657191061463394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7670541813714351</v>
+        <v>0.5828102936152675</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06667487461772481</v>
+        <v>0.02466433231167997</v>
       </c>
       <c r="E3">
-        <v>0.1186352240170514</v>
+        <v>0.2885666019882382</v>
       </c>
       <c r="F3">
-        <v>0.3084252041991817</v>
+        <v>0.5018398884598696</v>
       </c>
       <c r="G3">
-        <v>0.2120725756135826</v>
+        <v>0.3453436757877384</v>
       </c>
       <c r="H3">
-        <v>0.2108068861661394</v>
+        <v>0.5207963836678999</v>
       </c>
       <c r="I3">
-        <v>0.358393382903623</v>
+        <v>0.8723327190540857</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.35854223134578</v>
+        <v>0.4559173011872701</v>
       </c>
       <c r="L3">
-        <v>0.2773572441127641</v>
+        <v>0.1398480638158901</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8402782474893087</v>
+        <v>1.668108969658178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7002751476568108</v>
+        <v>0.5641571825201765</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06125653552938104</v>
+        <v>0.02286221542981792</v>
       </c>
       <c r="E4">
-        <v>0.1215531447206537</v>
+        <v>0.2906861705798551</v>
       </c>
       <c r="F4">
-        <v>0.2981571285437141</v>
+        <v>0.5021707890798979</v>
       </c>
       <c r="G4">
-        <v>0.2069622312052743</v>
+        <v>0.3464275154342502</v>
       </c>
       <c r="H4">
-        <v>0.2117562089740517</v>
+        <v>0.5234989296135382</v>
       </c>
       <c r="I4">
-        <v>0.3711679864962871</v>
+        <v>0.8801201803366538</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.254843854822354</v>
+        <v>0.4212170410037857</v>
       </c>
       <c r="L4">
-        <v>0.2519851323710611</v>
+        <v>0.1326422989129696</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.831225848337553</v>
+        <v>1.675914317505814</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6731133587745433</v>
+        <v>0.5565991326940889</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05904486041507084</v>
+        <v>0.02212504138914539</v>
       </c>
       <c r="E5">
-        <v>0.1227940586011638</v>
+        <v>0.2915834357095637</v>
       </c>
       <c r="F5">
-        <v>0.2941399547310439</v>
+        <v>0.5023936639620317</v>
       </c>
       <c r="G5">
-        <v>0.2050286066747304</v>
+        <v>0.3469399523750738</v>
       </c>
       <c r="H5">
-        <v>0.212242166340431</v>
+        <v>0.5246618485142562</v>
       </c>
       <c r="I5">
-        <v>0.3765738917972907</v>
+        <v>0.8834079986789369</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.212524874217308</v>
+        <v>0.4070297740507556</v>
       </c>
       <c r="L5">
-        <v>0.2416701325680179</v>
+        <v>0.1297172655142305</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8280579304276188</v>
+        <v>1.679372012038428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6686060235965385</v>
+        <v>0.5553467550995492</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05867738162530856</v>
+        <v>0.02200246651027982</v>
       </c>
       <c r="E6">
-        <v>0.1230032154034415</v>
+        <v>0.2917344516589138</v>
       </c>
       <c r="F6">
-        <v>0.2934827561056821</v>
+        <v>0.5024359891886263</v>
       </c>
       <c r="G6">
-        <v>0.2047162952305328</v>
+        <v>0.347029313900336</v>
       </c>
       <c r="H6">
-        <v>0.2123287454628766</v>
+        <v>0.5248586725051041</v>
       </c>
       <c r="I6">
-        <v>0.3774834731963974</v>
+        <v>0.8839608458161194</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.205493943598981</v>
+        <v>0.4046712025286752</v>
       </c>
       <c r="L6">
-        <v>0.2399586846194666</v>
+        <v>0.1292322574589377</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8275626791160988</v>
+        <v>1.679962884385347</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6999086375608101</v>
+        <v>0.5640550760678593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06122672341216884</v>
+        <v>0.02285228491260938</v>
       </c>
       <c r="E7">
-        <v>0.1215696714476397</v>
+        <v>0.2906981356287517</v>
       </c>
       <c r="F7">
-        <v>0.2981022858860243</v>
+        <v>0.5021734384078016</v>
       </c>
       <c r="G7">
-        <v>0.2069355611375272</v>
+        <v>0.3464341399183368</v>
       </c>
       <c r="H7">
-        <v>0.2117623660094523</v>
+        <v>0.5235143636389807</v>
       </c>
       <c r="I7">
-        <v>0.3712400889890848</v>
+        <v>0.8801640579430146</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.254273382967256</v>
+        <v>0.4210258940260871</v>
       </c>
       <c r="L7">
-        <v>0.2518459275847533</v>
+        <v>0.1326028046312331</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8311810463929845</v>
+        <v>1.675959827925112</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8385118974333921</v>
+        <v>0.6028609104277791</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07244532700099171</v>
+        <v>0.02657768190180576</v>
       </c>
       <c r="E8">
-        <v>0.1157013567598568</v>
+        <v>0.2864193187389983</v>
       </c>
       <c r="F8">
-        <v>0.3199777388611622</v>
+        <v>0.501787671628918</v>
       </c>
       <c r="G8">
-        <v>0.2180570424341326</v>
+        <v>0.3444292111256289</v>
       </c>
       <c r="H8">
-        <v>0.2101423923471941</v>
+        <v>0.5181230005377344</v>
       </c>
       <c r="I8">
-        <v>0.3454609511855153</v>
+        <v>0.8644136869760182</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.469010348352441</v>
+        <v>0.4927835001551841</v>
       </c>
       <c r="L8">
-        <v>0.3045267698079783</v>
+        <v>0.1475757345735929</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8517867854528447</v>
+        <v>1.660726846081047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.112598233870301</v>
+        <v>0.6802791148505776</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09436119658380449</v>
+        <v>0.03379209729747146</v>
       </c>
       <c r="E9">
-        <v>0.1059025483384239</v>
+        <v>0.2790837084437374</v>
       </c>
       <c r="F9">
-        <v>0.3688305786981942</v>
+        <v>0.5038091260055211</v>
       </c>
       <c r="G9">
-        <v>0.2451924666744034</v>
+        <v>0.3427365136864395</v>
       </c>
       <c r="H9">
-        <v>0.2103674716146671</v>
+        <v>0.5094917723296035</v>
       </c>
       <c r="I9">
-        <v>0.3016448406540366</v>
+        <v>0.8371354069397796</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.888803258440959</v>
+        <v>0.6319592374143781</v>
       </c>
       <c r="L9">
-        <v>0.4089426918298358</v>
+        <v>0.1772864239484306</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9105431140916096</v>
+        <v>1.63960141460214</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.315982251717884</v>
+        <v>0.7379366500385061</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1104417238164785</v>
+        <v>0.03903544905944045</v>
       </c>
       <c r="E10">
-        <v>0.09980776038797501</v>
+        <v>0.2743352091649953</v>
       </c>
       <c r="F10">
-        <v>0.4089515394707917</v>
+        <v>0.5069896059651171</v>
       </c>
       <c r="G10">
-        <v>0.2689269986264264</v>
+        <v>0.3428636008088191</v>
       </c>
       <c r="H10">
-        <v>0.2128474253475829</v>
+        <v>0.5043318092783906</v>
       </c>
       <c r="I10">
-        <v>0.2739220524247692</v>
+        <v>0.8192925179405233</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.197032182611764</v>
+        <v>0.7332312997810106</v>
       </c>
       <c r="L10">
-        <v>0.4866431874723247</v>
+        <v>0.1993227400539865</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9665704640845831</v>
+        <v>1.629420978928877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.409091178044036</v>
+        <v>0.7643303633581127</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1177597285873162</v>
+        <v>0.04140808790062067</v>
       </c>
       <c r="E11">
-        <v>0.09728934631697861</v>
+        <v>0.272313691262541</v>
       </c>
       <c r="F11">
-        <v>0.42826202908563</v>
+        <v>0.5088050568488214</v>
       </c>
       <c r="G11">
-        <v>0.2806784588156717</v>
+        <v>0.3432203178360993</v>
       </c>
       <c r="H11">
-        <v>0.2145347405349938</v>
+        <v>0.5022405251923772</v>
       </c>
       <c r="I11">
-        <v>0.2623648288600968</v>
+        <v>0.8116524382664512</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.337358015820712</v>
+        <v>0.7790816136239584</v>
       </c>
       <c r="L11">
-        <v>0.522278717113366</v>
+        <v>0.2093918867037985</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9952436157029467</v>
+        <v>1.625951146910808</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.444446393454683</v>
+        <v>0.774348134002139</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1205318790660925</v>
+        <v>0.04230469750500276</v>
       </c>
       <c r="E12">
-        <v>0.09637351068642808</v>
+        <v>0.2715680904128863</v>
       </c>
       <c r="F12">
-        <v>0.4357390725958368</v>
+        <v>0.5095455411002945</v>
       </c>
       <c r="G12">
-        <v>0.2852771210601901</v>
+        <v>0.3433984684639881</v>
       </c>
       <c r="H12">
-        <v>0.2152591087787386</v>
+        <v>0.5014853906840955</v>
       </c>
       <c r="I12">
-        <v>0.258147466795922</v>
+        <v>0.8088278925176997</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.390524230059242</v>
+        <v>0.7964115738862461</v>
       </c>
       <c r="L12">
-        <v>0.5358209201598925</v>
+        <v>0.2132111139191295</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.006594301562757</v>
+        <v>1.624804329712219</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.43682750239563</v>
+        <v>0.7721896138346551</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1199347938501631</v>
+        <v>0.04211167993479137</v>
       </c>
       <c r="E13">
-        <v>0.09656904841048153</v>
+        <v>0.2717277840719436</v>
       </c>
       <c r="F13">
-        <v>0.4341212346005463</v>
+        <v>0.5093837067936562</v>
       </c>
       <c r="G13">
-        <v>0.2842799173356667</v>
+        <v>0.3433581836271031</v>
       </c>
       <c r="H13">
-        <v>0.215099220988364</v>
+        <v>0.5016463865836869</v>
       </c>
       <c r="I13">
-        <v>0.2590485501832926</v>
+        <v>0.8094331580664313</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.379072495622893</v>
+        <v>0.7926807221865317</v>
       </c>
       <c r="L13">
-        <v>0.5329021351118399</v>
+        <v>0.2123882993061414</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.004127237054462</v>
+        <v>1.625043881850502</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411997858077171</v>
+        <v>0.7651540734523508</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1179877720515634</v>
+        <v>0.0414818900035101</v>
       </c>
       <c r="E14">
-        <v>0.09721323411938698</v>
+        <v>0.2722519514734945</v>
       </c>
       <c r="F14">
-        <v>0.4288737986627424</v>
+        <v>0.5088649144738682</v>
       </c>
       <c r="G14">
-        <v>0.2810537468771201</v>
+        <v>0.343234110719699</v>
       </c>
       <c r="H14">
-        <v>0.2145925930230703</v>
+        <v>0.5021776626479664</v>
       </c>
       <c r="I14">
-        <v>0.2620146304785962</v>
+        <v>0.8114186864269683</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.341731402257921</v>
+        <v>0.7805080186183204</v>
       </c>
       <c r="L14">
-        <v>0.5233918472415979</v>
+        <v>0.2097059723433432</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9961673612830282</v>
+        <v>1.625853447190678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.396801978891631</v>
+        <v>0.7608475825758774</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1167953101078609</v>
+        <v>0.04109588222212324</v>
       </c>
       <c r="E15">
-        <v>0.09761278282831221</v>
+        <v>0.2725756104691364</v>
       </c>
       <c r="F15">
-        <v>0.4256814022889657</v>
+        <v>0.5085540430447537</v>
       </c>
       <c r="G15">
-        <v>0.2790973312976632</v>
+        <v>0.3431637239920846</v>
       </c>
       <c r="H15">
-        <v>0.2142935467878857</v>
+        <v>0.5025078749166241</v>
       </c>
       <c r="I15">
-        <v>0.2638523918827005</v>
+        <v>0.8126438128280906</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.31886290266857</v>
+        <v>0.7730476139269058</v>
       </c>
       <c r="L15">
-        <v>0.5175729378846654</v>
+        <v>0.2080637797961629</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9913569471746371</v>
+        <v>1.626371099054168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.309910236557982</v>
+        <v>0.7362150207314926</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1099635806743322</v>
+        <v>0.03888013420322523</v>
       </c>
       <c r="E16">
-        <v>0.099977567209935</v>
+        <v>0.2744701068284776</v>
       </c>
       <c r="F16">
-        <v>0.4077118999908365</v>
+        <v>0.5068783801612753</v>
       </c>
       <c r="G16">
-        <v>0.2681791774399116</v>
+        <v>0.3428463107497421</v>
       </c>
       <c r="H16">
-        <v>0.2127488286217485</v>
+        <v>0.5044736290847496</v>
       </c>
       <c r="I16">
-        <v>0.2746991887753758</v>
+        <v>0.8198014110785135</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.187864789515913</v>
+        <v>0.7302303769605771</v>
       </c>
       <c r="L16">
-        <v>0.4843206632600356</v>
+        <v>0.198665582898272</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9647636303136551</v>
+        <v>1.629671120919312</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.256764172321539</v>
+        <v>0.7211455179944153</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1057736674793261</v>
+        <v>0.03751758695523222</v>
       </c>
       <c r="E17">
-        <v>0.1014942726282175</v>
+        <v>0.2756677986924885</v>
       </c>
       <c r="F17">
-        <v>0.3969679895859315</v>
+        <v>0.5059448342115687</v>
       </c>
       <c r="G17">
-        <v>0.261733598196848</v>
+        <v>0.342728207349758</v>
       </c>
       <c r="H17">
-        <v>0.211947880538375</v>
+        <v>0.5057451083164963</v>
       </c>
       <c r="I17">
-        <v>0.2816285406132124</v>
+        <v>0.8243144931037296</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.107538297012979</v>
+        <v>0.7039065597549268</v>
       </c>
       <c r="L17">
-        <v>0.4639998350461809</v>
+        <v>0.1929114253477877</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9492894980743785</v>
+        <v>1.631993114325994</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.226250575278556</v>
+        <v>0.7124935110565502</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033639765283851</v>
+        <v>0.03673270377359472</v>
       </c>
       <c r="E18">
-        <v>0.1023904809985581</v>
+        <v>0.2763697264587694</v>
       </c>
       <c r="F18">
-        <v>0.3908873032193938</v>
+        <v>0.5054425808178564</v>
       </c>
       <c r="G18">
-        <v>0.2581153924652995</v>
+        <v>0.3426884065583451</v>
       </c>
       <c r="H18">
-        <v>0.2115395106222948</v>
+        <v>0.5065005277831176</v>
       </c>
       <c r="I18">
-        <v>0.2857128534459576</v>
+        <v>0.8269551696396888</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.061346299298521</v>
+        <v>0.6887452613599407</v>
       </c>
       <c r="L18">
-        <v>0.4523386560141915</v>
+        <v>0.1896060051869881</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9406868753046211</v>
+        <v>1.633437962370039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.215928214959149</v>
+        <v>0.709566785625185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1025481205287235</v>
+        <v>0.03646675423100021</v>
       </c>
       <c r="E19">
-        <v>0.102697978002384</v>
+        <v>0.2766096287861721</v>
       </c>
       <c r="F19">
-        <v>0.3888451163437878</v>
+        <v>0.5052784856617691</v>
       </c>
       <c r="G19">
-        <v>0.2569053011237656</v>
+        <v>0.3426797592141355</v>
       </c>
       <c r="H19">
-        <v>0.2114100809039883</v>
+        <v>0.5067604394727212</v>
       </c>
       <c r="I19">
-        <v>0.2871124660344861</v>
+        <v>0.8278569630248906</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.045707796295687</v>
+        <v>0.6836084125338289</v>
       </c>
       <c r="L19">
-        <v>0.4483948052522351</v>
+        <v>0.1884875765248637</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.93782428205526</v>
+        <v>1.633945930973155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.262415923043704</v>
+        <v>0.722748085556276</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1062196624571783</v>
+        <v>0.0376627551128621</v>
       </c>
       <c r="E20">
-        <v>0.1013303403189543</v>
+        <v>0.2755389522146832</v>
       </c>
       <c r="F20">
-        <v>0.3981013721700322</v>
+        <v>0.5060406206777017</v>
       </c>
       <c r="G20">
-        <v>0.2624104371706082</v>
+        <v>0.3427378677569379</v>
       </c>
       <c r="H20">
-        <v>0.2120276931869256</v>
+        <v>0.50560726328046</v>
       </c>
       <c r="I20">
-        <v>0.2808806274975773</v>
+        <v>0.8238294235932457</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.116088104423767</v>
+        <v>0.7067109082182128</v>
       </c>
       <c r="L20">
-        <v>0.4661602019688758</v>
+        <v>0.1935235298161047</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9509056919978747</v>
+        <v>1.631734621121808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.41928819534877</v>
+        <v>0.7672199622388121</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1185596282465298</v>
+        <v>0.04166692535292782</v>
       </c>
       <c r="E21">
-        <v>0.0970229837828871</v>
+        <v>0.2720974508181904</v>
       </c>
       <c r="F21">
-        <v>0.430410529756017</v>
+        <v>0.5090158575951946</v>
       </c>
       <c r="G21">
-        <v>0.281997223119987</v>
+        <v>0.3432693843524319</v>
       </c>
       <c r="H21">
-        <v>0.2147390422253608</v>
+        <v>0.5020206157311904</v>
       </c>
       <c r="I21">
-        <v>0.2611390404470413</v>
+        <v>0.8108336269422303</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.352698530731004</v>
+        <v>0.784084328999711</v>
       </c>
       <c r="L21">
-        <v>0.5261839004436268</v>
+        <v>0.2104936682590903</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9984917090195324</v>
+        <v>1.625611121192833</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522384292779435</v>
+        <v>0.7964189073159957</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1266305151505946</v>
+        <v>0.04427303482749778</v>
       </c>
       <c r="E22">
-        <v>0.0944290438822204</v>
+        <v>0.2699642349779516</v>
       </c>
       <c r="F22">
-        <v>0.4524919621160137</v>
+        <v>0.511269344085882</v>
       </c>
       <c r="G22">
-        <v>0.2956704984156318</v>
+        <v>0.3438678435366285</v>
       </c>
       <c r="H22">
-        <v>0.2170115032530617</v>
+        <v>0.4998909595336016</v>
       </c>
       <c r="I22">
-        <v>0.2491679833191736</v>
+        <v>0.8027399126161416</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.507505748891447</v>
+        <v>0.8344620548372745</v>
       </c>
       <c r="L22">
-        <v>0.5656946613398048</v>
+        <v>0.2216210430476195</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.032481891376477</v>
+        <v>1.622583300688916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.46730345646364</v>
+        <v>0.780822845254022</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1223221851593337</v>
+        <v>0.04288311324378924</v>
       </c>
       <c r="E23">
-        <v>0.09579279843717892</v>
+        <v>0.2710921666474935</v>
       </c>
       <c r="F23">
-        <v>0.4406140936099163</v>
+        <v>0.5100383420408789</v>
       </c>
       <c r="G23">
-        <v>0.2882890635067525</v>
+        <v>0.343525432007894</v>
       </c>
       <c r="H23">
-        <v>0.2157511202438371</v>
+        <v>0.5010079852833798</v>
       </c>
       <c r="I23">
-        <v>0.2554693519047611</v>
+        <v>0.8070230889145567</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.424862615063859</v>
+        <v>0.8075922830063007</v>
       </c>
       <c r="L23">
-        <v>0.5445790783161613</v>
+        <v>0.2156788786654289</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.014064249254034</v>
+        <v>1.624110117173075</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.259860640428741</v>
+        <v>0.7220235284191006</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1060180308302137</v>
+        <v>0.03759712937147697</v>
       </c>
       <c r="E24">
-        <v>0.1014043787285317</v>
+        <v>0.2755971620946998</v>
       </c>
       <c r="F24">
-        <v>0.3975886713961501</v>
+        <v>0.5059972082939552</v>
       </c>
       <c r="G24">
-        <v>0.2621041667558757</v>
+        <v>0.3427334127693413</v>
       </c>
       <c r="H24">
-        <v>0.211991447965886</v>
+        <v>0.5056695069247752</v>
       </c>
       <c r="I24">
-        <v>0.2812184464350622</v>
+        <v>0.8240485800936614</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.112222772352709</v>
+        <v>0.7054431474976752</v>
       </c>
       <c r="L24">
-        <v>0.4651834334692495</v>
+        <v>0.1932467888964027</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9501740986283238</v>
+        <v>1.631851143570799</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038144230126505</v>
+        <v>0.6591968482607342</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08843834759794333</v>
+        <v>0.03185031791193182</v>
       </c>
       <c r="E25">
-        <v>0.1083641466981469</v>
+        <v>0.2809554602489488</v>
       </c>
       <c r="F25">
-        <v>0.3549172300161842</v>
+        <v>0.5029646787741555</v>
       </c>
       <c r="G25">
-        <v>0.2372263454220871</v>
+        <v>0.3429541345888509</v>
       </c>
       <c r="H25">
-        <v>0.2099183536338884</v>
+        <v>0.5116191359966535</v>
       </c>
       <c r="I25">
-        <v>0.3127407927240249</v>
+        <v>0.8441287474948567</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.775318304831842</v>
+        <v>0.5944777219969524</v>
       </c>
       <c r="L25">
-        <v>0.38054578818425</v>
+        <v>0.1692120446508909</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8925164862247499</v>
+        <v>1.644379164620034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6134656713070115</v>
+        <v>0.8761994449605766</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02758097233170531</v>
+        <v>0.07547828343087559</v>
       </c>
       <c r="E2">
-        <v>0.2853314639433258</v>
+        <v>0.1142247660909117</v>
       </c>
       <c r="F2">
-        <v>0.5018710737478926</v>
+        <v>0.3262868084491117</v>
       </c>
       <c r="G2">
-        <v>0.3440372786528201</v>
+        <v>0.2214114500080413</v>
       </c>
       <c r="H2">
-        <v>0.5167936572188339</v>
+        <v>0.2099252089337469</v>
       </c>
       <c r="I2">
-        <v>0.8603903481251596</v>
+        <v>0.3389191990508049</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5121234939768442</v>
+        <v>1.527084099912571</v>
       </c>
       <c r="L2">
-        <v>0.1516564328683074</v>
+        <v>0.3188648124754252</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.657191061463394</v>
+        <v>0.8585527280730645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5828102936152675</v>
+        <v>0.7670541813716056</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02466433231167997</v>
+        <v>0.06667487461756849</v>
       </c>
       <c r="E3">
-        <v>0.2885666019882382</v>
+        <v>0.1186352240170745</v>
       </c>
       <c r="F3">
-        <v>0.5018398884598696</v>
+        <v>0.3084252041991817</v>
       </c>
       <c r="G3">
-        <v>0.3453436757877384</v>
+        <v>0.2120725756135826</v>
       </c>
       <c r="H3">
-        <v>0.5207963836678999</v>
+        <v>0.2108068861661465</v>
       </c>
       <c r="I3">
-        <v>0.8723327190540857</v>
+        <v>0.3583933829036408</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4559173011872701</v>
+        <v>1.358542231345751</v>
       </c>
       <c r="L3">
-        <v>0.1398480638158901</v>
+        <v>0.277357244112622</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.668108969658178</v>
+        <v>0.8402782474893087</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5641571825201765</v>
+        <v>0.7002751476569529</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02286221542981792</v>
+        <v>0.06125653552925314</v>
       </c>
       <c r="E4">
-        <v>0.2906861705798551</v>
+        <v>0.1215531447206386</v>
       </c>
       <c r="F4">
-        <v>0.5021707890798979</v>
+        <v>0.2981571285437141</v>
       </c>
       <c r="G4">
-        <v>0.3464275154342502</v>
+        <v>0.2069622312052743</v>
       </c>
       <c r="H4">
-        <v>0.5234989296135382</v>
+        <v>0.211756208973938</v>
       </c>
       <c r="I4">
-        <v>0.8801201803366538</v>
+        <v>0.3711679864962871</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4212170410037857</v>
+        <v>1.254843854822326</v>
       </c>
       <c r="L4">
-        <v>0.1326422989129696</v>
+        <v>0.2519851323710895</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.675914317505814</v>
+        <v>0.831225848337553</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5565991326940889</v>
+        <v>0.6731133587745148</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02212504138914539</v>
+        <v>0.05904486041507795</v>
       </c>
       <c r="E5">
-        <v>0.2915834357095637</v>
+        <v>0.1227940586011558</v>
       </c>
       <c r="F5">
-        <v>0.5023936639620317</v>
+        <v>0.2941399547310368</v>
       </c>
       <c r="G5">
-        <v>0.3469399523750738</v>
+        <v>0.2050286066747233</v>
       </c>
       <c r="H5">
-        <v>0.5246618485142562</v>
+        <v>0.212242166340431</v>
       </c>
       <c r="I5">
-        <v>0.8834079986789369</v>
+        <v>0.3765738917972836</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4070297740507556</v>
+        <v>1.212524874217422</v>
       </c>
       <c r="L5">
-        <v>0.1297172655142305</v>
+        <v>0.2416701325679469</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.679372012038428</v>
+        <v>0.8280579304276756</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5553467550995492</v>
+        <v>0.6686060235967659</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02200246651027982</v>
+        <v>0.05867738162530145</v>
       </c>
       <c r="E6">
-        <v>0.2917344516589138</v>
+        <v>0.123003215403501</v>
       </c>
       <c r="F6">
-        <v>0.5024359891886263</v>
+        <v>0.293482756105675</v>
       </c>
       <c r="G6">
-        <v>0.347029313900336</v>
+        <v>0.2047162952304689</v>
       </c>
       <c r="H6">
-        <v>0.5248586725051041</v>
+        <v>0.2123287454629832</v>
       </c>
       <c r="I6">
-        <v>0.8839608458161194</v>
+        <v>0.3774834731963868</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4046712025286752</v>
+        <v>1.205493943599123</v>
       </c>
       <c r="L6">
-        <v>0.1292322574589377</v>
+        <v>0.2399586846194808</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.679962884385347</v>
+        <v>0.8275626791160846</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5640550760678593</v>
+        <v>0.6999086375605827</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02285228491260938</v>
+        <v>0.06122672341194146</v>
       </c>
       <c r="E7">
-        <v>0.2906981356287517</v>
+        <v>0.1215696714476691</v>
       </c>
       <c r="F7">
-        <v>0.5021734384078016</v>
+        <v>0.2981022858860243</v>
       </c>
       <c r="G7">
-        <v>0.3464341399183368</v>
+        <v>0.2069355611375272</v>
       </c>
       <c r="H7">
-        <v>0.5235143636389807</v>
+        <v>0.2117623660094452</v>
       </c>
       <c r="I7">
-        <v>0.8801640579430146</v>
+        <v>0.3712400889891043</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4210258940260871</v>
+        <v>1.254273382967369</v>
       </c>
       <c r="L7">
-        <v>0.1326028046312331</v>
+        <v>0.2518459275846254</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.675959827925112</v>
+        <v>0.8311810463930414</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6028609104277791</v>
+        <v>0.8385118974336763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02657768190180576</v>
+        <v>0.0724453270011125</v>
       </c>
       <c r="E8">
-        <v>0.2864193187389983</v>
+        <v>0.1157013567598693</v>
       </c>
       <c r="F8">
-        <v>0.501787671628918</v>
+        <v>0.3199777388611551</v>
       </c>
       <c r="G8">
-        <v>0.3444292111256289</v>
+        <v>0.2180570424341326</v>
       </c>
       <c r="H8">
-        <v>0.5181230005377344</v>
+        <v>0.210142392347187</v>
       </c>
       <c r="I8">
-        <v>0.8644136869760182</v>
+        <v>0.3454609511855136</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4927835001551841</v>
+        <v>1.469010348352441</v>
       </c>
       <c r="L8">
-        <v>0.1475757345735929</v>
+        <v>0.3045267698079357</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.660726846081047</v>
+        <v>0.8517867854528447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6802791148505776</v>
+        <v>1.11259823387033</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03379209729747146</v>
+        <v>0.09436119658367659</v>
       </c>
       <c r="E9">
-        <v>0.2790837084437374</v>
+        <v>0.1059025483384097</v>
       </c>
       <c r="F9">
-        <v>0.5038091260055211</v>
+        <v>0.3688305786982085</v>
       </c>
       <c r="G9">
-        <v>0.3427365136864395</v>
+        <v>0.2451924666743537</v>
       </c>
       <c r="H9">
-        <v>0.5094917723296035</v>
+        <v>0.2103674716147808</v>
       </c>
       <c r="I9">
-        <v>0.8371354069397796</v>
+        <v>0.3016448406540366</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6319592374143781</v>
+        <v>1.888803258440873</v>
       </c>
       <c r="L9">
-        <v>0.1772864239484306</v>
+        <v>0.4089426918297647</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.63960141460214</v>
+        <v>0.9105431140915528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7379366500385061</v>
+        <v>1.31598225171777</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03903544905944045</v>
+        <v>0.1104417238166917</v>
       </c>
       <c r="E10">
-        <v>0.2743352091649953</v>
+        <v>0.09980776038796435</v>
       </c>
       <c r="F10">
-        <v>0.5069896059651171</v>
+        <v>0.4089515394707917</v>
       </c>
       <c r="G10">
-        <v>0.3428636008088191</v>
+        <v>0.2689269986264264</v>
       </c>
       <c r="H10">
-        <v>0.5043318092783906</v>
+        <v>0.2128474253475829</v>
       </c>
       <c r="I10">
-        <v>0.8192925179405233</v>
+        <v>0.2739220524247656</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7332312997810106</v>
+        <v>2.197032182611821</v>
       </c>
       <c r="L10">
-        <v>0.1993227400539865</v>
+        <v>0.4866431874722821</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.629420978928877</v>
+        <v>0.9665704640845263</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7643303633581127</v>
+        <v>1.409091178044065</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04140808790062067</v>
+        <v>0.1177597285873446</v>
       </c>
       <c r="E11">
-        <v>0.272313691262541</v>
+        <v>0.0972893463169644</v>
       </c>
       <c r="F11">
-        <v>0.5088050568488214</v>
+        <v>0.4282620290856372</v>
       </c>
       <c r="G11">
-        <v>0.3432203178360993</v>
+        <v>0.2806784588156717</v>
       </c>
       <c r="H11">
-        <v>0.5022405251923772</v>
+        <v>0.2145347405349796</v>
       </c>
       <c r="I11">
-        <v>0.8116524382664512</v>
+        <v>0.262364828860095</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7790816136239584</v>
+        <v>2.337358015820683</v>
       </c>
       <c r="L11">
-        <v>0.2093918867037985</v>
+        <v>0.5222787171133803</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.625951146910808</v>
+        <v>0.9952436157028615</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.774348134002139</v>
+        <v>1.444446393454598</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04230469750500276</v>
+        <v>0.1205318790660925</v>
       </c>
       <c r="E12">
-        <v>0.2715680904128863</v>
+        <v>0.09637351068644939</v>
       </c>
       <c r="F12">
-        <v>0.5095455411002945</v>
+        <v>0.4357390725958368</v>
       </c>
       <c r="G12">
-        <v>0.3433984684639881</v>
+        <v>0.285277121060119</v>
       </c>
       <c r="H12">
-        <v>0.5014853906840955</v>
+        <v>0.2152591087787243</v>
       </c>
       <c r="I12">
-        <v>0.8088278925176997</v>
+        <v>0.2581474667959078</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7964115738862461</v>
+        <v>2.390524230059071</v>
       </c>
       <c r="L12">
-        <v>0.2132111139191295</v>
+        <v>0.5358209201599067</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.624804329712219</v>
+        <v>1.0065943015627</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7721896138346551</v>
+        <v>1.43682750239563</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04211167993479137</v>
+        <v>0.1199347938499358</v>
       </c>
       <c r="E13">
-        <v>0.2717277840719436</v>
+        <v>0.09656904841049574</v>
       </c>
       <c r="F13">
-        <v>0.5093837067936562</v>
+        <v>0.4341212346005463</v>
       </c>
       <c r="G13">
-        <v>0.3433581836271031</v>
+        <v>0.2842799173356667</v>
       </c>
       <c r="H13">
-        <v>0.5016463865836869</v>
+        <v>0.215099220988364</v>
       </c>
       <c r="I13">
-        <v>0.8094331580664313</v>
+        <v>0.2590485501832891</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7926807221865317</v>
+        <v>2.379072495622864</v>
       </c>
       <c r="L13">
-        <v>0.2123882993061414</v>
+        <v>0.5329021351118257</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.625043881850502</v>
+        <v>1.00412723705449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7651540734523508</v>
+        <v>1.411997858077285</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0414818900035101</v>
+        <v>0.117987772051805</v>
       </c>
       <c r="E14">
-        <v>0.2722519514734945</v>
+        <v>0.09721323411937277</v>
       </c>
       <c r="F14">
-        <v>0.5088649144738682</v>
+        <v>0.4288737986627424</v>
       </c>
       <c r="G14">
-        <v>0.343234110719699</v>
+        <v>0.2810537468771486</v>
       </c>
       <c r="H14">
-        <v>0.5021776626479664</v>
+        <v>0.2145925930230561</v>
       </c>
       <c r="I14">
-        <v>0.8114186864269683</v>
+        <v>0.2620146304785909</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7805080186183204</v>
+        <v>2.341731402257977</v>
       </c>
       <c r="L14">
-        <v>0.2097059723433432</v>
+        <v>0.5233918472415837</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.625853447190678</v>
+        <v>0.9961673612830282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7608475825758774</v>
+        <v>1.396801978891489</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04109588222212324</v>
+        <v>0.1167953101078893</v>
       </c>
       <c r="E15">
-        <v>0.2725756104691364</v>
+        <v>0.09761278282832819</v>
       </c>
       <c r="F15">
-        <v>0.5085540430447537</v>
+        <v>0.4256814022889799</v>
       </c>
       <c r="G15">
-        <v>0.3431637239920846</v>
+        <v>0.2790973312976064</v>
       </c>
       <c r="H15">
-        <v>0.5025078749166241</v>
+        <v>0.214293546787772</v>
       </c>
       <c r="I15">
-        <v>0.8126438128280906</v>
+        <v>0.263852391882704</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7730476139269058</v>
+        <v>2.318862902668485</v>
       </c>
       <c r="L15">
-        <v>0.2080637797961629</v>
+        <v>0.517572937884637</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.626371099054168</v>
+        <v>0.9913569471746086</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7362150207314926</v>
+        <v>1.309910236558096</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03888013420322523</v>
+        <v>0.1099635806743322</v>
       </c>
       <c r="E16">
-        <v>0.2744701068284776</v>
+        <v>0.09997756720992079</v>
       </c>
       <c r="F16">
-        <v>0.5068783801612753</v>
+        <v>0.407711899990808</v>
       </c>
       <c r="G16">
-        <v>0.3428463107497421</v>
+        <v>0.2681791774399542</v>
       </c>
       <c r="H16">
-        <v>0.5044736290847496</v>
+        <v>0.2127488286217485</v>
       </c>
       <c r="I16">
-        <v>0.8198014110785135</v>
+        <v>0.2746991887753722</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7302303769605771</v>
+        <v>2.187864789515913</v>
       </c>
       <c r="L16">
-        <v>0.198665582898272</v>
+        <v>0.4843206632600356</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.629671120919312</v>
+        <v>0.9647636303136409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7211455179944153</v>
+        <v>1.256764172321567</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03751758695523222</v>
+        <v>0.1057736674794825</v>
       </c>
       <c r="E17">
-        <v>0.2756677986924885</v>
+        <v>0.1014942726282353</v>
       </c>
       <c r="F17">
-        <v>0.5059448342115687</v>
+        <v>0.3969679895859386</v>
       </c>
       <c r="G17">
-        <v>0.342728207349758</v>
+        <v>0.2617335981967983</v>
       </c>
       <c r="H17">
-        <v>0.5057451083164963</v>
+        <v>0.2119478805383679</v>
       </c>
       <c r="I17">
-        <v>0.8243144931037296</v>
+        <v>0.2816285406131964</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7039065597549268</v>
+        <v>2.107538297012837</v>
       </c>
       <c r="L17">
-        <v>0.1929114253477877</v>
+        <v>0.463999835046252</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.631993114325994</v>
+        <v>0.9492894980743785</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7124935110565502</v>
+        <v>1.226250575278584</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03673270377359472</v>
+        <v>0.1033639765282715</v>
       </c>
       <c r="E18">
-        <v>0.2763697264587694</v>
+        <v>0.1023904809985758</v>
       </c>
       <c r="F18">
-        <v>0.5054425808178564</v>
+        <v>0.3908873032193938</v>
       </c>
       <c r="G18">
-        <v>0.3426884065583451</v>
+        <v>0.2581153924653634</v>
       </c>
       <c r="H18">
-        <v>0.5065005277831176</v>
+        <v>0.2115395106222877</v>
       </c>
       <c r="I18">
-        <v>0.8269551696396888</v>
+        <v>0.2857128534459523</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6887452613599407</v>
+        <v>2.061346299298492</v>
       </c>
       <c r="L18">
-        <v>0.1896060051869881</v>
+        <v>0.4523386560141205</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.633437962370039</v>
+        <v>0.940686875304678</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.709566785625185</v>
+        <v>1.215928214959263</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03646675423100021</v>
+        <v>0.1025481205285956</v>
       </c>
       <c r="E19">
-        <v>0.2766096287861721</v>
+        <v>0.1026979780023574</v>
       </c>
       <c r="F19">
-        <v>0.5052784856617691</v>
+        <v>0.3888451163437736</v>
       </c>
       <c r="G19">
-        <v>0.3426797592141355</v>
+        <v>0.2569053011236946</v>
       </c>
       <c r="H19">
-        <v>0.5067604394727212</v>
+        <v>0.2114100809039812</v>
       </c>
       <c r="I19">
-        <v>0.8278569630248906</v>
+        <v>0.2871124660344897</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6836084125338289</v>
+        <v>2.045707796295858</v>
       </c>
       <c r="L19">
-        <v>0.1884875765248637</v>
+        <v>0.4483948052522351</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.633945930973155</v>
+        <v>0.93782428205526</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.722748085556276</v>
+        <v>1.262415923043562</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0376627551128621</v>
+        <v>0.1062196624569367</v>
       </c>
       <c r="E20">
-        <v>0.2755389522146832</v>
+        <v>0.101330340318956</v>
       </c>
       <c r="F20">
-        <v>0.5060406206777017</v>
+        <v>0.3981013721700464</v>
       </c>
       <c r="G20">
-        <v>0.3427378677569379</v>
+        <v>0.2624104371706082</v>
       </c>
       <c r="H20">
-        <v>0.50560726328046</v>
+        <v>0.2120276931868119</v>
       </c>
       <c r="I20">
-        <v>0.8238294235932457</v>
+        <v>0.280880627497579</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7067109082182128</v>
+        <v>2.11608810442371</v>
       </c>
       <c r="L20">
-        <v>0.1935235298161047</v>
+        <v>0.4661602019689042</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.631734621121808</v>
+        <v>0.9509056919979315</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7672199622388121</v>
+        <v>1.419288195348742</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04166692535292782</v>
+        <v>0.1185596282465582</v>
       </c>
       <c r="E21">
-        <v>0.2720974508181904</v>
+        <v>0.09702298378288532</v>
       </c>
       <c r="F21">
-        <v>0.5090158575951946</v>
+        <v>0.4304105297560028</v>
       </c>
       <c r="G21">
-        <v>0.3432693843524319</v>
+        <v>0.2819972231199159</v>
       </c>
       <c r="H21">
-        <v>0.5020206157311904</v>
+        <v>0.2147390422253466</v>
       </c>
       <c r="I21">
-        <v>0.8108336269422303</v>
+        <v>0.2611390404470288</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.784084328999711</v>
+        <v>2.352698530731118</v>
       </c>
       <c r="L21">
-        <v>0.2104936682590903</v>
+        <v>0.5261839004436126</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.625611121192833</v>
+        <v>0.9984917090195324</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7964189073159957</v>
+        <v>1.522384292779492</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04427303482749778</v>
+        <v>0.1266305151506941</v>
       </c>
       <c r="E22">
-        <v>0.2699642349779516</v>
+        <v>0.09442904388222573</v>
       </c>
       <c r="F22">
-        <v>0.511269344085882</v>
+        <v>0.4524919621160066</v>
       </c>
       <c r="G22">
-        <v>0.3438678435366285</v>
+        <v>0.2956704984156318</v>
       </c>
       <c r="H22">
-        <v>0.4998909595336016</v>
+        <v>0.2170115032531754</v>
       </c>
       <c r="I22">
-        <v>0.8027399126161416</v>
+        <v>0.2491679833191718</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8344620548372745</v>
+        <v>2.507505748891475</v>
       </c>
       <c r="L22">
-        <v>0.2216210430476195</v>
+        <v>0.5656946613398617</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.622583300688916</v>
+        <v>1.032481891376449</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.780822845254022</v>
+        <v>1.46730345646364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04288311324378924</v>
+        <v>0.1223221851593479</v>
       </c>
       <c r="E23">
-        <v>0.2710921666474935</v>
+        <v>0.09579279843718247</v>
       </c>
       <c r="F23">
-        <v>0.5100383420408789</v>
+        <v>0.4406140936099163</v>
       </c>
       <c r="G23">
-        <v>0.343525432007894</v>
+        <v>0.2882890635067525</v>
       </c>
       <c r="H23">
-        <v>0.5010079852833798</v>
+        <v>0.2157511202439508</v>
       </c>
       <c r="I23">
-        <v>0.8070230889145567</v>
+        <v>0.2554693519047575</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8075922830063007</v>
+        <v>2.424862615063972</v>
       </c>
       <c r="L23">
-        <v>0.2156788786654289</v>
+        <v>0.544579078316076</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.624110117173075</v>
+        <v>1.014064249254034</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7220235284191006</v>
+        <v>1.259860640428741</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03759712937147697</v>
+        <v>0.1060180308301284</v>
       </c>
       <c r="E24">
-        <v>0.2755971620946998</v>
+        <v>0.1014043787285068</v>
       </c>
       <c r="F24">
-        <v>0.5059972082939552</v>
+        <v>0.3975886713961359</v>
       </c>
       <c r="G24">
-        <v>0.3427334127693413</v>
+        <v>0.2621041667558757</v>
       </c>
       <c r="H24">
-        <v>0.5056695069247752</v>
+        <v>0.2119914479658789</v>
       </c>
       <c r="I24">
-        <v>0.8240485800936614</v>
+        <v>0.2812184464350764</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7054431474976752</v>
+        <v>2.112222772352624</v>
       </c>
       <c r="L24">
-        <v>0.1932467888964027</v>
+        <v>0.4651834334692495</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.631851143570799</v>
+        <v>0.9501740986282528</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6591968482607342</v>
+        <v>1.038144230126619</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03185031791193182</v>
+        <v>0.08843834759786517</v>
       </c>
       <c r="E25">
-        <v>0.2809554602489488</v>
+        <v>0.1083641466982055</v>
       </c>
       <c r="F25">
-        <v>0.5029646787741555</v>
+        <v>0.3549172300161771</v>
       </c>
       <c r="G25">
-        <v>0.3429541345888509</v>
+        <v>0.2372263454221084</v>
       </c>
       <c r="H25">
-        <v>0.5116191359966535</v>
+        <v>0.2099183536337677</v>
       </c>
       <c r="I25">
-        <v>0.8441287474948567</v>
+        <v>0.312740792724032</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5944777219969524</v>
+        <v>1.775318304831899</v>
       </c>
       <c r="L25">
-        <v>0.1692120446508909</v>
+        <v>0.3805457881842926</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.644379164620034</v>
+        <v>0.8925164862247499</v>
       </c>
     </row>
   </sheetData>
